--- a/5504 HW/Ch. 16/Q2.xlsx
+++ b/5504 HW/Ch. 16/Q2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaalejandra/Desktop/Test/5504 HW/Ch. 16/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B06D5F6-9B5B-5B40-A9C8-D400353EA6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B155D6A-886D-0A4A-8C83-CF0548FE1387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{2EC12774-1A1F-DF42-9503-BFC417A168DF}"/>
   </bookViews>
@@ -33,19 +33,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -59,6 +131,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -68,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -76,13 +156,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FA647B-80BF-D74D-B3ED-0D86DDB6E9E5}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="H29" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,6 +580,217 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
+    <row r="30" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="12:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.9769248971001151</v>
+      </c>
+    </row>
+    <row r="34" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.95438225457407044</v>
+      </c>
+    </row>
+    <row r="35" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.93917633943209389</v>
+      </c>
+    </row>
+    <row r="36" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1.6396358733271998</v>
+      </c>
+    </row>
+    <row r="37" spans="12:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="12:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L40" s="4"/>
+      <c r="M40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
+        <v>168.73478260869567</v>
+      </c>
+      <c r="O41" s="2">
+        <v>168.73478260869567</v>
+      </c>
+      <c r="P41" s="2">
+        <v>62.763881401617255</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>4.193149909348718E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="2">
+        <v>3</v>
+      </c>
+      <c r="N42" s="2">
+        <v>8.0652173913043477</v>
+      </c>
+      <c r="O42" s="2">
+        <v>2.6884057971014492</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="12:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="3">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
+        <v>176.8</v>
+      </c>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="12:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L45" s="4"/>
+      <c r="M45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M46" s="2">
+        <v>7.841614906832298</v>
+      </c>
+      <c r="N46" s="2">
+        <v>1.72368268703409</v>
+      </c>
+      <c r="O46" s="2">
+        <v>4.5493378600473298</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1.9897922898045421E-2</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>2.3560873079991627</v>
+      </c>
+      <c r="R46" s="2">
+        <v>13.327142505665433</v>
+      </c>
+      <c r="S46" s="2">
+        <v>2.3560873079991627</v>
+      </c>
+      <c r="T46" s="2">
+        <v>13.327142505665433</v>
+      </c>
+    </row>
+    <row r="47" spans="12:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0.61180124223602483</v>
+      </c>
+      <c r="N47" s="3">
+        <v>7.7224562739371699E-2</v>
+      </c>
+      <c r="O47" s="3">
+        <v>7.9223658967266362</v>
+      </c>
+      <c r="P47" s="3">
+        <v>4.193149909348718E-3</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0.3660382178689614</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0.85756426660308827</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0.3660382178689614</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0.85756426660308827</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
